--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Erbb4.xlsx
@@ -537,22 +537,22 @@
         <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J2">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N2">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0003488194533333333</v>
+        <v>0.0006944567166666667</v>
       </c>
       <c r="R2">
-        <v>0.00209291672</v>
+        <v>0.0041667403</v>
       </c>
       <c r="S2">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="T2">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,28 +593,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H3">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I3">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J3">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.005425999999999999</v>
+        <v>0.0108025</v>
       </c>
       <c r="N3">
-        <v>0.010852</v>
+        <v>0.021605</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.031407253401</v>
+        <v>0.1170184593375</v>
       </c>
       <c r="R3">
-        <v>0.125629013604</v>
+        <v>0.46807383735</v>
       </c>
       <c r="S3">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="T3">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
     </row>
   </sheetData>
